--- a/Perpus13.xlsx
+++ b/Perpus13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\ProjectLiblary\library13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>Unormal</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Tgl_Kembali</t>
   </si>
   <si>
-    <t>Siswa</t>
-  </si>
-  <si>
-    <t>Penjaga</t>
-  </si>
-  <si>
     <t>Tutorial PHP</t>
   </si>
   <si>
@@ -75,13 +69,52 @@
   </si>
   <si>
     <t>1NF</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <t>T_Buku</t>
+  </si>
+  <si>
+    <t>T_Siswa</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t>T_Transaksi</t>
+  </si>
+  <si>
+    <t>Id_Buku</t>
+  </si>
+  <si>
+    <t>Id_Siswa</t>
+  </si>
+  <si>
+    <t>T_Penjaga</t>
+  </si>
+  <si>
+    <t>Id_Penjaga</t>
+  </si>
+  <si>
+    <t>Nama Siswa</t>
+  </si>
+  <si>
+    <t>Nama Penjaga</t>
+  </si>
+  <si>
+    <t>T_Pinjam</t>
+  </si>
+  <si>
+    <t>Id_Pinjam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +136,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0E02FE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF009900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +229,25 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,9 +256,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF009900"/>
       <color rgb="FF0E02FE"/>
       <color rgb="FF00CCFF"/>
-      <color rgb="FF009900"/>
       <color rgb="FFCC6600"/>
       <color rgb="FF3366FF"/>
     </mruColors>
@@ -457,21 +537,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,30 +566,30 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -513,7 +597,7 @@
         <v>42097</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -522,17 +606,17 @@
         <v>42159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -541,56 +625,56 @@
         <v>42221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -598,7 +682,7 @@
         <v>42097</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -607,13 +691,13 @@
         <v>42159</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -621,7 +705,7 @@
         <v>42097</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
@@ -630,13 +714,13 @@
         <v>42221</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -644,19 +728,427 @@
         <v>42097</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>42097</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>42159</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>42097</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42221</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>42097</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42097</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>42159</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5">
+        <v>42221</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
